--- a/comparison_results/Comprehensive_Comparison_Results.xlsx
+++ b/comparison_results/Comprehensive_Comparison_Results.xlsx
@@ -547,46 +547,46 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0381167541103032</v>
+        <v>0.0381167541120819</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03225744856697357</v>
+        <v>0.03223398397352191</v>
       </c>
       <c r="H2" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="I2" t="n">
-        <v>1.121121121121121</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="J2" t="n">
-        <v>1.530375480057522</v>
+        <v>1.530375480151358</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4908324602141079</v>
+        <v>0.6629319308461445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0800490663662712</v>
+        <v>0.08004906637254607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07976090167247017</v>
+        <v>0.0796887615673214</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5891234841441207</v>
+        <v>0.5891234842651398</v>
       </c>
       <c r="O2" t="n">
-        <v>0.558319720939207</v>
+        <v>0.5605310346935779</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1832844112801169</v>
+        <v>0.1832844112676406</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1841962656758236</v>
+        <v>0.1839016615300776</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005859305543329633</v>
+        <v>0.005882770138559992</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8462800498076559</v>
+        <v>0.8456644518769418</v>
       </c>
     </row>
     <row r="3">
@@ -606,46 +606,46 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0290144619564346</v>
+        <v>0.03064643001352425</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03177401625648166</v>
+        <v>0.03156115101066054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8308308308308309</v>
+        <v>0.8608608608608609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.960960960960961</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04112235261990449</v>
+        <v>0.1611431670488421</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06806222544488705</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1082819318933008</v>
+        <v>0.1176554358288785</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1464095557350434</v>
+        <v>0.1441786774599408</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6079580515718048</v>
+        <v>0.6507018716188988</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7693476834641602</v>
+        <v>0.7517773017654316</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2488530492582106</v>
+        <v>0.2534242204124408</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2632941119345618</v>
+        <v>0.2629192929592377</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.002759554300047061</v>
+        <v>-0.0009147209971362841</v>
       </c>
       <c r="S3" t="n">
-        <v>1.095109614791084</v>
+        <v>1.02984755473093</v>
       </c>
     </row>
     <row r="4">
@@ -665,46 +665,46 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03622710914756089</v>
+        <v>0.03394797729401562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03495886514757951</v>
+        <v>0.03498385238657256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9109109109109109</v>
+        <v>0.8808808808808809</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.9209209209209209</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1297996236447663</v>
+        <v>0.01150082323677637</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008509238147147435</v>
+        <v>0.1668073969348427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2357752414722241</v>
+        <v>0.2115859881372316</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2457201378017458</v>
+        <v>0.2461934387192212</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9560768886652065</v>
+        <v>0.8671418618572398</v>
       </c>
       <c r="O4" t="n">
-        <v>0.989927148390408</v>
+        <v>0.9836439027979422</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3457115055744479</v>
+        <v>0.3388875701932029</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3469326825532604</v>
+        <v>0.3458129196804668</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001268243999981378</v>
+        <v>-0.00103587509255694</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9649918519632482</v>
+        <v>1.030513602727652</v>
       </c>
     </row>
     <row r="5">
@@ -724,46 +724,46 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03688089120400134</v>
+        <v>0.03661440369615534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03240908588261222</v>
+        <v>0.03213804755003475</v>
       </c>
       <c r="H5" t="n">
-        <v>1.031031031031031</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="I5" t="n">
-        <v>1.111111111111111</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="J5" t="n">
-        <v>1.296401305118366</v>
+        <v>1.515420694735736</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6574711201657868</v>
+        <v>0.6253276226477089</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08018839545167544</v>
+        <v>0.07840601610333509</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07978627151402022</v>
+        <v>0.08007684354726548</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5970536150537019</v>
+        <v>0.5927037483019439</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5595469193982867</v>
+        <v>0.5589939480955808</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1817269546811959</v>
+        <v>0.1802797943588592</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1840477948649505</v>
+        <v>0.1841277900303309</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004471805321389119</v>
+        <v>0.004476356146120589</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8787500742144768</v>
+        <v>0.8777433006073885</v>
       </c>
     </row>
     <row r="6">
@@ -783,46 +783,46 @@
         <v>-0.5235987755982988</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02299389914933973</v>
+        <v>0.02279275719101436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05569976834222223</v>
+        <v>0.03143363321481968</v>
       </c>
       <c r="H6" t="n">
         <v>0.8108108108108109</v>
       </c>
       <c r="I6" t="n">
-        <v>2.132132132132132</v>
+        <v>1.281281281281281</v>
       </c>
       <c r="J6" t="n">
-        <v>2.907627472126251e-07</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.068447461509384</v>
+        <v>0.7075102635657693</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01176310323482004</v>
+        <v>0.01148586917413738</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02821732935663632</v>
+        <v>0.02008600738731308</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2131850108790788</v>
+        <v>0.1972046059898719</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3167284533613999</v>
+        <v>0.2848314011825754</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08213530208861372</v>
+        <v>0.08205842246086358</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08878471047756888</v>
+        <v>0.09175123641404563</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.03270586919288251</v>
+        <v>-0.008640876023805321</v>
       </c>
       <c r="S6" t="n">
-        <v>2.422371603026782</v>
+        <v>1.37910622007643</v>
       </c>
     </row>
     <row r="7">
@@ -842,46 +842,46 @@
         <v>0.3926990816987241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04453415780036089</v>
+        <v>0.04173145153451659</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04109784686766557</v>
+        <v>0.04047578132408375</v>
       </c>
       <c r="H7" t="n">
+        <v>0.970970970970971</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.9509509509509509</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.960960960960961</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.449571811326962</v>
+        <v>0.0427949344445544</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3248338990408861</v>
+        <v>0.1249750524255688</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3977017956700299</v>
+        <v>0.4035802592992032</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4015059872695633</v>
+        <v>0.4010436866631427</v>
       </c>
       <c r="N7" t="n">
-        <v>1.211835641593565</v>
+        <v>1.226583090210793</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25466159511648</v>
+        <v>1.253370005348982</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4416088492907737</v>
+        <v>0.4416229840011345</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4394902135091993</v>
+        <v>0.4391893826283337</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003436310932695322</v>
+        <v>0.001255670210432838</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9228387578788461</v>
+        <v>0.9699106989030981</v>
       </c>
     </row>
     <row r="8">
@@ -901,46 +901,46 @@
         <v>-0.2617993877991494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03036519246144574</v>
+        <v>0.02759761002292697</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02761608844330986</v>
+        <v>0.02378963642782176</v>
       </c>
       <c r="H8" t="n">
-        <v>0.980980980980981</v>
+        <v>0.8908908908908909</v>
       </c>
       <c r="I8" t="n">
-        <v>1.031031031031031</v>
+        <v>0.8708708708708709</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08435170386217328</v>
+        <v>0.05175220489372911</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2080853179555475</v>
+        <v>0.1625480573926724</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04370901294422793</v>
+        <v>0.03727547081400973</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04491648655914294</v>
+        <v>0.03668408704994421</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4328994890035716</v>
+        <v>0.400766390748026</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4206532178282191</v>
+        <v>0.3884678915546221</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1414786745566612</v>
+        <v>0.1363452388618009</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1428421349352124</v>
+        <v>0.1355704564650859</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00274910401813588</v>
+        <v>0.003807973595105211</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9094652858984386</v>
+        <v>0.8620179938791185</v>
       </c>
     </row>
   </sheetData>
